--- a/QALegendProject/src/main/resources/TestData.xlsx
+++ b/QALegendProject/src/main/resources/TestData.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91756\eclipse-workspace\QALegendProject2\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91756\git\QALegendProject\QALegendProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E4C061-16E7-4B89-B77D-48F957F58EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79DD68C-7D52-4D17-828B-2C3645D73262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="3276" windowWidth="17604" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePageData" sheetId="1" r:id="rId1"/>
     <sheet name="LoginPageData" sheetId="2" r:id="rId2"/>
     <sheet name="ResetPageData" sheetId="3" r:id="rId3"/>
+    <sheet name="UsersManagePageData" sheetId="5" r:id="rId4"/>
+    <sheet name="AddUserPageData" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -51,6 +53,27 @@
   </si>
   <si>
     <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>Users - Maxfest Enterprises PVT LTD,Kochi</t>
+  </si>
+  <si>
+    <t>Add user - Maxfest Enterprises PVT LTD,Kochi</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Cghb</t>
+  </si>
+  <si>
+    <t>Kmnghywd</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>adminahjy356@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -101,10 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C2C14E-E77D-45EB-83EE-4E351C514969}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -485,4 +509,86 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5CEDE0-E6EB-4642-A683-1A0540CCC178}">
+  <dimension ref="A4:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A3559F-46F7-4AF7-BB93-F89CA55B25AC}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+      <c r="C4">
+        <v>123456</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{65521C62-C42E-4C66-AD01-162C667D90A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>